--- a/Pedidos/Proveedores.xlsx
+++ b/Pedidos/Proveedores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC3A44-C8F0-402C-B9C3-B88D6B54DCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B88BA-8065-4B10-9152-6E7ABF594A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Compañía</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Novus</t>
-  </si>
-  <si>
-    <t>orders@novusbio.com    orders.emea@bio-techne.com</t>
   </si>
   <si>
     <t>Quimigen (Santa Cruz)</t>
@@ -143,12 +140,36 @@
   <si>
     <t>30€ (&lt; de 750€)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frederick.Thienpont@bio-techne.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orders@novusbio.com    orders.emea@bio-techne.com</t>
+    </r>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>maria.aranda.figueroa@bd.com concursos@bd.com Orders.es@bd.com</t>
+  </si>
+  <si>
+    <t>35€ (&lt; de 250€)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +181,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,11 +272,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -286,8 +334,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:G15"/>
+  <dimension ref="D2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
@@ -645,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -679,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -694,52 +749,69 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
     </row>
+    <row r="16" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F16" r:id="rId1" display="maria.aranda.figueroa@bd.com" xr:uid="{C0F6A8A7-9C6E-4F71-AB84-B5623DB9445B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pedidos/Proveedores.xlsx
+++ b/Pedidos/Proveedores.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B88BA-8065-4B10-9152-6E7ABF594A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ADA7FB-B35E-4C34-B526-067730DE8CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="3900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Compañía</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Solmeglas</t>
   </si>
   <si>
-    <t xml:space="preserve">Elena Caballero:          elena_caballero@bio-rad.com </t>
-  </si>
-  <si>
     <t>Jaime Liébanas:  jliebanas@solmeglas.com</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Scharlab</t>
   </si>
   <si>
-    <t>Lidia Torre Albarsanz: madrid08@scharlab.com</t>
-  </si>
-  <si>
     <t>Página web soportecomercial@merckgroup.com</t>
   </si>
   <si>
@@ -104,29 +98,6 @@
   </si>
   <si>
     <t>Fisher Scientific</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pedidos@quimigen.com  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                   Beatris Alonso: b.alonso@quimigen.com </t>
-    </r>
   </si>
   <si>
     <t>22€ (&lt; de 300€)    En la página web: 10€ (&lt; de 150€) Hielo azul: +20€  Hielo seco: + 35€</t>
@@ -159,17 +130,84 @@
     <t>BD</t>
   </si>
   <si>
-    <t>maria.aranda.figueroa@bd.com concursos@bd.com Orders.es@bd.com</t>
-  </si>
-  <si>
     <t>35€ (&lt; de 250€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página web </t>
+  </si>
+  <si>
+    <t>Agilent</t>
+  </si>
+  <si>
+    <t>Alfredo  alfredo.caro-maldonado@agilent.com</t>
+  </si>
+  <si>
+    <t>maria.aranda.figueroa@bd.com  concursos@bd.com                                                                                       Orders.es@bd.com</t>
+  </si>
+  <si>
+    <t>Lidia Torre Albarsanz: madrid08@scharlab.com Juan Antonio Cumbreño madrid10@scharlab.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena Caballero:     elena_caballero@bio-rad.com </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pedidos@quimigen.com</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                          Beatris Alonso: b.alonso@quimigen.com </t>
+    </r>
+  </si>
+  <si>
+    <t>NIRCO</t>
+  </si>
+  <si>
+    <t>Santiago Díaz  sdiaz@nirco.com  916164268</t>
+  </si>
+  <si>
+    <t>BIOGEN (Tocris)</t>
+  </si>
+  <si>
+    <t>Álvaro Roman   comercial@biogen.es</t>
+  </si>
+  <si>
+    <t>BIONOVA</t>
+  </si>
+  <si>
+    <t>Domingo Fernández dfernandez@bionova.es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +238,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -221,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -273,14 +319,88 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -288,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -334,11 +454,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,17 +770,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:G16"/>
+  <dimension ref="D2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="28.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
@@ -652,14 +801,14 @@
       </c>
     </row>
     <row r="4" spans="4:7" ht="121.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -682,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
@@ -700,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -715,103 +864,154 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="6" t="s">
+    <row r="16" spans="4:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" display="maria.aranda.figueroa@bd.com" xr:uid="{C0F6A8A7-9C6E-4F71-AB84-B5623DB9445B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/Proveedores.xlsx
+++ b/Pedidos/Proveedores.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ADA7FB-B35E-4C34-B526-067730DE8CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EECCBA-7A81-4126-B57E-212FA69143B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -46,42 +46,24 @@
     <t>Cultek</t>
   </si>
   <si>
-    <t>Patricia Santos:  psantos@cultek.com </t>
-  </si>
-  <si>
     <t>ThermoFisher Scientific</t>
   </si>
   <si>
-    <t>Matos, Andreia I:  Andreia.I@thermofisher.com Pedraza, Antonia: antonia.pedraza@thermofisher.com</t>
-  </si>
-  <si>
     <t>VWR</t>
   </si>
   <si>
     <t>ofertas.es@vwr.com</t>
   </si>
   <si>
-    <t>Werfen / Qiagen</t>
-  </si>
-  <si>
-    <t>ofertas.es@werfen.com</t>
-  </si>
-  <si>
     <t>Solmeglas</t>
   </si>
   <si>
-    <t>Jaime Liébanas:  jliebanas@solmeglas.com</t>
-  </si>
-  <si>
     <t>BIO-RAD</t>
   </si>
   <si>
     <t>Scharlab</t>
   </si>
   <si>
-    <t>Página web soportecomercial@merckgroup.com</t>
-  </si>
-  <si>
     <t>Novus</t>
   </si>
   <si>
@@ -110,6 +92,39 @@
   </si>
   <si>
     <t>30€ (&lt; de 750€)</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>35€ (&lt; de 250€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página web </t>
+  </si>
+  <si>
+    <t>Agilent</t>
+  </si>
+  <si>
+    <t>maria.aranda.figueroa@bd.com  concursos@bd.com                                                                                       Orders.es@bd.com</t>
+  </si>
+  <si>
+    <t>NIRCO</t>
+  </si>
+  <si>
+    <t>BIOGEN (Tocris)</t>
+  </si>
+  <si>
+    <t>Álvaro Roman   comercial@biogen.es</t>
+  </si>
+  <si>
+    <t>BIONOVA</t>
+  </si>
+  <si>
+    <t>Domingo Fernández dfernandez@bionova.es</t>
+  </si>
+  <si>
+    <t>Werfen / Qiagen / Cell signalling</t>
   </si>
   <si>
     <r>
@@ -123,32 +138,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>orders@novusbio.com    orders.emea@bio-techne.com</t>
+      <t>orders@novusbio.com                      orders.emea@bio-techne.com</t>
     </r>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>35€ (&lt; de 250€)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Página web </t>
-  </si>
-  <si>
-    <t>Agilent</t>
-  </si>
-  <si>
-    <t>Alfredo  alfredo.caro-maldonado@agilent.com</t>
-  </si>
-  <si>
-    <t>maria.aranda.figueroa@bd.com  concursos@bd.com                                                                                       Orders.es@bd.com</t>
-  </si>
-  <si>
-    <t>Lidia Torre Albarsanz: madrid08@scharlab.com Juan Antonio Cumbreño madrid10@scharlab.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elena Caballero:     elena_caballero@bio-rad.com </t>
+    <t xml:space="preserve">elena_caballero@bio-rad.com </t>
+  </si>
+  <si>
+    <t>jliebanas@solmeglas.com</t>
+  </si>
+  <si>
+    <t>ofertas.es@werfen.com                                                  cmartin5@werfen.com</t>
+  </si>
+  <si>
+    <t>Página web                 soportecomercial@merckgroup.com</t>
+  </si>
+  <si>
+    <t>psantos@cultek.com </t>
+  </si>
+  <si>
+    <t>Andreia.I@thermofisher.com  antonia.pedraza@thermofisher.com</t>
+  </si>
+  <si>
+    <t>Lidia Torre Albarsanz: madrid08@scharlab.com Juan Antonio Cumbreño: madrid10@scharlab.com</t>
   </si>
   <si>
     <r>
@@ -181,26 +193,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                          Beatris Alonso: b.alonso@quimigen.com </t>
+      <t xml:space="preserve">                                         b.alonso@quimigen.com </t>
     </r>
   </si>
   <si>
-    <t>NIRCO</t>
-  </si>
-  <si>
-    <t>Santiago Díaz  sdiaz@nirco.com  916164268</t>
-  </si>
-  <si>
-    <t>BIOGEN (Tocris)</t>
-  </si>
-  <si>
-    <t>Álvaro Roman   comercial@biogen.es</t>
-  </si>
-  <si>
-    <t>BIONOVA</t>
-  </si>
-  <si>
-    <t>Domingo Fernández dfernandez@bionova.es</t>
+    <t>alfredo.caro-maldonado@agilent.com</t>
+  </si>
+  <si>
+    <t>sdiaz@nirco.com  916164268</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,7 +402,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -408,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -425,41 +429,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,27 +448,49 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -772,28 +775,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -801,217 +804,222 @@
       </c>
     </row>
     <row r="4" spans="4:7" ht="121.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
+      <c r="F4" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="4:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="4:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="4:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="4:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="10" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="4:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="4:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{F383DDBF-BE9C-46DD-9125-289F77DB9035}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{3A10D82D-3078-4216-A35E-D41EF9873886}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{7A2643A8-AAD5-45C2-82BE-9CD1E48A96A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Pedidos/Proveedores.xlsx
+++ b/Pedidos/Proveedores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EECCBA-7A81-4126-B57E-212FA69143B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183EFAF-B1FA-4230-8E5E-DE6DDBA2F8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Compañía</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>sdiaz@nirco.com  916164268</t>
+  </si>
+  <si>
+    <t>Valor de los portes (&lt;160€)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -490,6 +493,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +905,9 @@
       <c r="F11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="4:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="19" t="s">
@@ -966,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="17"/>
